--- a/wasetup_report.xlsx
+++ b/wasetup_report.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93</v>
+        <v>0.093</v>
       </c>
       <c r="C2" t="n">
-        <v>4806</v>
+        <v>4.806</v>
       </c>
       <c r="D2" t="n">
-        <v>4007</v>
+        <v>4.007</v>
       </c>
       <c r="E2" t="n">
-        <v>17443</v>
+        <v>17.443</v>
       </c>
       <c r="F2" t="n">
-        <v>2048</v>
+        <v>2.048</v>
       </c>
       <c r="G2" t="n">
-        <v>28434</v>
+        <v>28.434</v>
       </c>
       <c r="H2" t="n">
-        <v>108.767</v>
+        <v>0.109</v>
       </c>
       <c r="I2" t="n">
-        <v>56939.767</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220</v>
+        <v>0.22</v>
       </c>
       <c r="C3" t="n">
-        <v>6813</v>
+        <v>6.813</v>
       </c>
       <c r="D3" t="n">
-        <v>1061</v>
+        <v>1.061</v>
       </c>
       <c r="E3" t="n">
-        <v>4945</v>
+        <v>4.945</v>
       </c>
       <c r="F3" t="n">
-        <v>2223</v>
+        <v>2.223</v>
       </c>
       <c r="G3" t="n">
-        <v>13238</v>
+        <v>13.238</v>
       </c>
       <c r="H3" t="n">
-        <v>381.377</v>
+        <v>0.381</v>
       </c>
       <c r="I3" t="n">
-        <v>28881.377</v>
+        <v>28.881</v>
       </c>
     </row>
     <row r="4">
@@ -549,28 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>0.094</v>
       </c>
       <c r="C4" t="n">
-        <v>4785</v>
+        <v>4.785</v>
       </c>
       <c r="D4" t="n">
-        <v>2801</v>
+        <v>2.801</v>
       </c>
       <c r="E4" t="n">
-        <v>15478</v>
+        <v>15.478</v>
       </c>
       <c r="F4" t="n">
-        <v>1832</v>
+        <v>1.832</v>
       </c>
       <c r="G4" t="n">
-        <v>24599</v>
+        <v>24.599</v>
       </c>
       <c r="H4" t="n">
-        <v>106.109</v>
+        <v>0.106</v>
       </c>
       <c r="I4" t="n">
-        <v>49695.109</v>
+        <v>49.695</v>
       </c>
     </row>
     <row r="5">
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372</v>
+        <v>0.372</v>
       </c>
       <c r="C5" t="n">
-        <v>6859</v>
+        <v>6.859</v>
       </c>
       <c r="D5" t="n">
-        <v>2210</v>
+        <v>2.21</v>
       </c>
       <c r="E5" t="n">
-        <v>9021</v>
+        <v>9.021000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>2876</v>
+        <v>2.876</v>
       </c>
       <c r="G5" t="n">
-        <v>18276</v>
+        <v>18.276</v>
       </c>
       <c r="H5" t="n">
-        <v>411.348</v>
+        <v>0.411</v>
       </c>
       <c r="I5" t="n">
-        <v>40025.348</v>
+        <v>40.025</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428</v>
+        <v>0.428</v>
       </c>
       <c r="C6" t="n">
-        <v>9936</v>
+        <v>9.936</v>
       </c>
       <c r="D6" t="n">
-        <v>1695</v>
+        <v>1.695</v>
       </c>
       <c r="E6" t="n">
-        <v>4707</v>
+        <v>4.707</v>
       </c>
       <c r="F6" t="n">
-        <v>2759</v>
+        <v>2.759</v>
       </c>
       <c r="G6" t="n">
-        <v>14241</v>
+        <v>14.241</v>
       </c>
       <c r="H6" t="n">
-        <v>372.358</v>
+        <v>0.372</v>
       </c>
       <c r="I6" t="n">
-        <v>34138.358</v>
+        <v>34.138</v>
       </c>
     </row>
     <row r="7">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93</v>
+        <v>0.093</v>
       </c>
       <c r="C7" t="n">
-        <v>4725</v>
+        <v>4.725</v>
       </c>
       <c r="D7" t="n">
-        <v>562</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>13802</v>
+        <v>13.802</v>
       </c>
       <c r="F7" t="n">
-        <v>2684</v>
+        <v>2.684</v>
       </c>
       <c r="G7" t="n">
-        <v>20992</v>
+        <v>20.992</v>
       </c>
       <c r="H7" t="n">
-        <v>231.545</v>
+        <v>0.232</v>
       </c>
       <c r="I7" t="n">
-        <v>43089.545</v>
+        <v>43.09</v>
       </c>
     </row>
     <row r="8">
@@ -673,28 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>0.094</v>
       </c>
       <c r="C8" t="n">
-        <v>13297</v>
+        <v>13.297</v>
       </c>
       <c r="D8" t="n">
-        <v>3114</v>
+        <v>3.114</v>
       </c>
       <c r="E8" t="n">
-        <v>80150</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8676</v>
+        <v>8.676</v>
       </c>
       <c r="G8" t="n">
-        <v>103001</v>
+        <v>103.001</v>
       </c>
       <c r="H8" t="n">
-        <v>113.988</v>
+        <v>0.114</v>
       </c>
       <c r="I8" t="n">
-        <v>208445.988</v>
+        <v>208.446</v>
       </c>
     </row>
     <row r="9">
@@ -704,28 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4390</v>
+        <v>4.39</v>
       </c>
       <c r="C9" t="n">
-        <v>13828</v>
+        <v>13.828</v>
       </c>
       <c r="D9" t="n">
-        <v>4592</v>
+        <v>4.592</v>
       </c>
       <c r="E9" t="n">
-        <v>88038</v>
+        <v>88.038</v>
       </c>
       <c r="F9" t="n">
-        <v>17094</v>
+        <v>17.094</v>
       </c>
       <c r="G9" t="n">
-        <v>124011</v>
+        <v>124.011</v>
       </c>
       <c r="H9" t="n">
-        <v>147.395</v>
+        <v>0.147</v>
       </c>
       <c r="I9" t="n">
-        <v>252100.395</v>
+        <v>252.1</v>
       </c>
     </row>
     <row r="10">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4047</v>
+        <v>4.047</v>
       </c>
       <c r="C10" t="n">
-        <v>11986</v>
+        <v>11.986</v>
       </c>
       <c r="D10" t="n">
-        <v>3488</v>
+        <v>3.488</v>
       </c>
       <c r="E10" t="n">
-        <v>88225</v>
+        <v>88.22499999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>16434</v>
+        <v>16.434</v>
       </c>
       <c r="G10" t="n">
-        <v>120981</v>
+        <v>120.981</v>
       </c>
       <c r="H10" t="n">
-        <v>135.475</v>
+        <v>0.135</v>
       </c>
       <c r="I10" t="n">
-        <v>245296.475</v>
+        <v>245.296</v>
       </c>
     </row>
     <row r="11">
@@ -766,28 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>972</v>
+        <v>0.972</v>
       </c>
       <c r="C11" t="n">
-        <v>12296</v>
+        <v>12.296</v>
       </c>
       <c r="D11" t="n">
-        <v>4567</v>
+        <v>4.567</v>
       </c>
       <c r="E11" t="n">
-        <v>38325</v>
+        <v>38.325</v>
       </c>
       <c r="F11" t="n">
-        <v>20315</v>
+        <v>20.315</v>
       </c>
       <c r="G11" t="n">
-        <v>76105</v>
+        <v>76.105</v>
       </c>
       <c r="H11" t="n">
-        <v>621.154</v>
+        <v>0.621</v>
       </c>
       <c r="I11" t="n">
-        <v>153201.154</v>
+        <v>153.201</v>
       </c>
     </row>
     <row r="12">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94</v>
+        <v>0.094</v>
       </c>
       <c r="C12" t="n">
-        <v>11632</v>
+        <v>11.632</v>
       </c>
       <c r="D12" t="n">
-        <v>3272</v>
+        <v>3.272</v>
       </c>
       <c r="E12" t="n">
-        <v>8364</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>4918</v>
+        <v>4.918</v>
       </c>
       <c r="G12" t="n">
-        <v>22889</v>
+        <v>22.889</v>
       </c>
       <c r="H12" t="n">
-        <v>379.797</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>51548.797</v>
+        <v>51.549</v>
       </c>
     </row>
     <row r="13">
@@ -828,28 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>0.094</v>
       </c>
       <c r="C13" t="n">
-        <v>6778</v>
+        <v>6.778</v>
       </c>
       <c r="D13" t="n">
-        <v>4850</v>
+        <v>4.85</v>
       </c>
       <c r="E13" t="n">
-        <v>23460</v>
+        <v>23.46</v>
       </c>
       <c r="F13" t="n">
-        <v>2980</v>
+        <v>2.98</v>
       </c>
       <c r="G13" t="n">
-        <v>35624</v>
+        <v>35.624</v>
       </c>
       <c r="H13" t="n">
-        <v>280.536</v>
+        <v>0.281</v>
       </c>
       <c r="I13" t="n">
-        <v>74066.53599999999</v>
+        <v>74.06699999999999</v>
       </c>
     </row>
     <row r="14">
@@ -859,28 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78</v>
+        <v>0.078</v>
       </c>
       <c r="C14" t="n">
-        <v>3969</v>
+        <v>3.969</v>
       </c>
       <c r="D14" t="n">
-        <v>4031</v>
+        <v>4.031</v>
       </c>
       <c r="E14" t="n">
-        <v>10168</v>
+        <v>10.168</v>
       </c>
       <c r="F14" t="n">
-        <v>2702</v>
+        <v>2.702</v>
       </c>
       <c r="G14" t="n">
-        <v>21107</v>
+        <v>21.107</v>
       </c>
       <c r="H14" t="n">
-        <v>352.447</v>
+        <v>0.352</v>
       </c>
       <c r="I14" t="n">
-        <v>42407.447</v>
+        <v>42.407</v>
       </c>
     </row>
     <row r="15">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>201</v>
+        <v>0.201</v>
       </c>
       <c r="C15" t="n">
-        <v>6071</v>
+        <v>6.071</v>
       </c>
       <c r="D15" t="n">
-        <v>2040</v>
+        <v>2.04</v>
       </c>
       <c r="E15" t="n">
-        <v>4448</v>
+        <v>4.448</v>
       </c>
       <c r="F15" t="n">
-        <v>2535</v>
+        <v>2.535</v>
       </c>
       <c r="G15" t="n">
-        <v>13083</v>
+        <v>13.083</v>
       </c>
       <c r="H15" t="n">
-        <v>299.738</v>
+        <v>0.3</v>
       </c>
       <c r="I15" t="n">
-        <v>28677.738</v>
+        <v>28.678</v>
       </c>
     </row>
     <row r="16">
@@ -921,28 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>0.079</v>
       </c>
       <c r="C16" t="n">
-        <v>6290</v>
+        <v>6.29</v>
       </c>
       <c r="D16" t="n">
-        <v>2904</v>
+        <v>2.904</v>
       </c>
       <c r="E16" t="n">
-        <v>19226</v>
+        <v>19.226</v>
       </c>
       <c r="F16" t="n">
-        <v>2494</v>
+        <v>2.494</v>
       </c>
       <c r="G16" t="n">
-        <v>28295</v>
+        <v>28.295</v>
       </c>
       <c r="H16" t="n">
-        <v>121.176</v>
+        <v>0.121</v>
       </c>
       <c r="I16" t="n">
-        <v>59409.176</v>
+        <v>59.409</v>
       </c>
     </row>
     <row r="17">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="C17" t="n">
-        <v>4821</v>
+        <v>4.821</v>
       </c>
       <c r="D17" t="n">
-        <v>930</v>
+        <v>0.93</v>
       </c>
       <c r="E17" t="n">
-        <v>4193</v>
+        <v>4.193</v>
       </c>
       <c r="F17" t="n">
-        <v>2883</v>
+        <v>2.883</v>
       </c>
       <c r="G17" t="n">
-        <v>11529</v>
+        <v>11.529</v>
       </c>
       <c r="H17" t="n">
-        <v>410.863</v>
+        <v>0.411</v>
       </c>
       <c r="I17" t="n">
-        <v>24966.863</v>
+        <v>24.967</v>
       </c>
     </row>
     <row r="18">
@@ -983,28 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113</v>
+        <v>0.113</v>
       </c>
       <c r="C18" t="n">
-        <v>5917</v>
+        <v>5.917</v>
       </c>
       <c r="D18" t="n">
-        <v>1613</v>
+        <v>1.613</v>
       </c>
       <c r="E18" t="n">
-        <v>10379</v>
+        <v>10.379</v>
       </c>
       <c r="F18" t="n">
-        <v>2613</v>
+        <v>2.613</v>
       </c>
       <c r="G18" t="n">
-        <v>19568</v>
+        <v>19.568</v>
       </c>
       <c r="H18" t="n">
-        <v>791.746</v>
+        <v>0.792</v>
       </c>
       <c r="I18" t="n">
-        <v>40994.746</v>
+        <v>40.995</v>
       </c>
     </row>
     <row r="19">
@@ -1014,28 +1014,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114</v>
+        <v>0.114</v>
       </c>
       <c r="C19" t="n">
-        <v>7665</v>
+        <v>7.665</v>
       </c>
       <c r="D19" t="n">
-        <v>3205</v>
+        <v>3.205</v>
       </c>
       <c r="E19" t="n">
-        <v>17169</v>
+        <v>17.169</v>
       </c>
       <c r="F19" t="n">
-        <v>1438</v>
+        <v>1.438</v>
       </c>
       <c r="G19" t="n">
-        <v>29596</v>
+        <v>29.596</v>
       </c>
       <c r="H19" t="n">
-        <v>442.317</v>
+        <v>0.442</v>
       </c>
       <c r="I19" t="n">
-        <v>59629.317</v>
+        <v>59.629</v>
       </c>
     </row>
     <row r="20">
@@ -1045,28 +1045,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>127</v>
+        <v>0.127</v>
       </c>
       <c r="C20" t="n">
-        <v>6439</v>
+        <v>6.439</v>
       </c>
       <c r="D20" t="n">
-        <v>2236</v>
+        <v>2.236</v>
       </c>
       <c r="E20" t="n">
-        <v>8574</v>
+        <v>8.574</v>
       </c>
       <c r="F20" t="n">
-        <v>1699</v>
+        <v>1.699</v>
       </c>
       <c r="G20" t="n">
-        <v>16768</v>
+        <v>16.768</v>
       </c>
       <c r="H20" t="n">
-        <v>1236.241</v>
+        <v>1.236</v>
       </c>
       <c r="I20" t="n">
-        <v>37079.241</v>
+        <v>37.079</v>
       </c>
     </row>
   </sheetData>
